--- a/Automation Test Data App/Automation Test Data App/bin/Release/net6.0/UploadedFiles/E1002360/Claims - TestData (DEMO).xlsx
+++ b/Automation Test Data App/Automation Test Data App/bin/Release/net6.0/UploadedFiles/E1002360/Claims - TestData (DEMO).xlsx
@@ -1,40 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G992127\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E1002360\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9057D5FC-5A74-410F-B706-6E10B79C367B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF46768-CD6B-4657-80AE-9265E3902976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="2" r:id="rId1"/>
     <sheet name="ClaimDetails_Data" sheetId="6" r:id="rId2"/>
     <sheet name="DocIndexingData" sheetId="7" state="hidden" r:id="rId3"/>
-    <sheet name="Dropdowns" sheetId="18" state="hidden" r:id="rId4"/>
+    <sheet name="Dropdowns" sheetId="18" r:id="rId4"/>
     <sheet name="Dropdown" sheetId="8" state="hidden" r:id="rId5"/>
     <sheet name="BankDetails" sheetId="16" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ClaimDetails_Data!$D$1:$I$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ClaimDetails_Data!$D$1:$I$1</definedName>
     <definedName name="functions">Dropdowns!$E$1</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="253">
   <si>
     <t>Scenario_ID</t>
   </si>
@@ -45,9 +54,6 @@
     <t>Function</t>
   </si>
   <si>
-    <t>Scenario Detail</t>
-  </si>
-  <si>
     <t>Expected Results</t>
   </si>
   <si>
@@ -753,10 +759,7 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Doing a Death Claim</t>
-  </si>
-  <si>
-    <t>20230308</t>
+    <t>Life Asured</t>
   </si>
   <si>
     <t>None</t>
@@ -768,89 +771,44 @@
     <t>Expiry_date</t>
   </si>
   <si>
-    <t>20230303</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>SSFP_Claim</t>
   </si>
   <si>
+    <t>Safrican Provide and Protect (4000)</t>
+  </si>
+  <si>
+    <t>20230219</t>
+  </si>
+  <si>
+    <t>20230224</t>
+  </si>
+  <si>
+    <t>Authorisation - Authorisation of claim 1 beneficiary                                             Authorisation - When the life assured dies                                                    Process a Death claim on PLA-Claim to be created on ILR.                                    Raise claim payment- Raise claim payment for 1 beneficiary</t>
+  </si>
+  <si>
+    <t>SK00055354</t>
+  </si>
+  <si>
     <t>Motor Vehicle Accident</t>
   </si>
   <si>
-    <t>SF00000310</t>
-  </si>
-  <si>
-    <t>5309155711088</t>
-  </si>
-  <si>
-    <t>SF00000830</t>
-  </si>
-  <si>
-    <t>Miss N Gamede (Self)</t>
-  </si>
-  <si>
-    <t>Miss H Zakwe (Self)</t>
-  </si>
-  <si>
-    <t>4610110000100</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>WP00244842</t>
-  </si>
-  <si>
-    <t>SJF_Claim</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Safrican Serenity Funeral (2000)</t>
-  </si>
-  <si>
-    <t>Safrican Serenity Funeral Premium (1000)</t>
-  </si>
-  <si>
-    <t>Safrican Just Funeral (3000)</t>
-  </si>
-  <si>
-    <t>0312200000100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SF00002672 </t>
-  </si>
-  <si>
-    <t>7201185747083</t>
-  </si>
-  <si>
-    <t>Mr E Ngwenya (Self)</t>
-  </si>
-  <si>
-    <t>Ms N Arends (Self)</t>
-  </si>
-  <si>
-    <t>SSI_Manual_Claim</t>
-  </si>
-  <si>
-    <t>Safrican Serenity Investment (5000)</t>
-  </si>
-  <si>
-    <t>Life Assured</t>
+    <t>Miss L Masola (Self)</t>
+  </si>
+  <si>
+    <t>9307090892084</t>
+  </si>
+  <si>
+    <t>Scenario_Details</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -910,18 +868,10 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <sz val="9"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF111111"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -957,7 +907,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -993,36 +943,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1074,28 +999,18 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
@@ -1159,14 +1074,22 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="9"/>
+        <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1179,7 +1102,9 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical/>
       </border>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1325,12 +1250,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{609B3FE1-602A-411C-91B1-C1CE8676CFCE}" name="Table1" displayName="Table1" ref="B1:F5" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
-  <autoFilter ref="B1:F5" xr:uid="{609B3FE1-602A-411C-91B1-C1CE8676CFCE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{609B3FE1-602A-411C-91B1-C1CE8676CFCE}" name="Table1" displayName="Table1" ref="B1:F2" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{F815EF09-5A8D-41CD-9C8D-1F1F859054C1}" name="Policy No" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{A75649DE-6DED-4E66-9436-0C7BC08EC505}" name="Function" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{29F29C3D-8F0B-4BAF-96B9-4B4A62706445}" name="Scenario Detail" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{29F29C3D-8F0B-4BAF-96B9-4B4A62706445}" name="Scenario_Details" dataDxfId="2"/>
     <tableColumn id="6" xr3:uid="{63F22A7E-5294-4622-A00B-A430B0E7ACBC}" name="Expected Results" dataDxfId="1"/>
     <tableColumn id="7" xr3:uid="{FB7773F7-9331-4362-8DC0-661E87BD674A}" name="Actual Results" dataDxfId="0"/>
   </tableColumns>
@@ -1627,7 +1551,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1635,26 +1559,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122D3D24-972A-41AA-875A-C35A49A85BBB}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="22.7265625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="20.1796875" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.1796875" style="14" customWidth="1"/>
+    <col min="1" max="1" width="5.77734375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="22.77734375" style="14" customWidth="1"/>
+    <col min="4" max="4" width="41.5546875" style="22" customWidth="1"/>
+    <col min="5" max="5" width="25.21875" style="14" customWidth="1"/>
     <col min="6" max="6" width="20" style="14" hidden="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="14"/>
+    <col min="7" max="16384" width="8.77734375" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="18" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" s="18" customFormat="1" ht="18">
       <c r="A1" s="15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>1</v>
@@ -1663,86 +1587,32 @@
         <v>2</v>
       </c>
       <c r="D1" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="44.4" customHeight="1">
+      <c r="A2" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="C2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>6</v>
-      </c>
       <c r="F2" s="21"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>251</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>247</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="28"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>256</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>257</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="28"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>263</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>267</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1751,266 +1621,165 @@
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F09824BF-A945-4CEA-8751-DE40D4B4A2BF}">
+          <x14:formula1>
+            <xm:f>Dropdowns!$E$1:$E$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0A4A292-240A-4D5D-90BA-625919CD3573}">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.6328125" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.08984375" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.26953125" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7265625" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="29.453125" style="14" customWidth="1"/>
-    <col min="10" max="10" width="19.453125" style="14" customWidth="1"/>
-    <col min="11" max="11" width="20.1796875" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.90625" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="19.7265625" style="14" customWidth="1"/>
-    <col min="16" max="16384" width="8.7265625" style="14"/>
+    <col min="1" max="1" width="11.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="29.44140625" style="14" customWidth="1"/>
+    <col min="10" max="10" width="19.44140625" style="14" customWidth="1"/>
+    <col min="11" max="11" width="20.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="19.77734375" style="14" customWidth="1"/>
+    <col min="16" max="16384" width="8.77734375" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="15.6">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="13" t="s">
+      <c r="I1" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="K1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="J1" s="13" t="s">
+      <c r="L1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="K1" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+      <c r="B2" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>244</v>
-      </c>
       <c r="F2" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>249</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="K2" s="23"/>
-      <c r="L2" s="10"/>
+        <v>251</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>239</v>
+      </c>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="K3" s="23"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="K4" s="23"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="K5" s="23"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
+      <c r="P2" s="10" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0A704850-6031-4011-B17B-96DE3135B4BD}">
-          <x14:formula1>
-            <xm:f>Dropdown!$C$2:$C$11</xm:f>
-          </x14:formula1>
-          <xm:sqref>N2:N5</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0866E873-E5E9-4499-B759-06A2B7B4355D}">
-          <x14:formula1>
-            <xm:f>Scenarios!$A$2:$A$34</xm:f>
-          </x14:formula1>
-          <xm:sqref>B6:C13 A2:A13</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3DAAEDC9-980B-48DF-A575-65792CE2DA48}">
           <x14:formula1>
             <xm:f>Dropdowns!$F$1:$F$3</xm:f>
           </x14:formula1>
-          <xm:sqref>P2:P22</xm:sqref>
+          <xm:sqref>P2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{94BEB1E6-1A7E-4406-8ED0-B89B81E0F60B}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7BA9AE99-DC00-4149-9338-6AC2E6C14416}">
           <x14:formula1>
-            <xm:f>Dropdowns!$G:$G</xm:f>
+            <xm:f>Dropdowns!$C$1:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G5</xm:sqref>
+          <xm:sqref>D2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0866E873-E5E9-4499-B759-06A2B7B4355D}">
+          <x14:formula1>
+            <xm:f>Scenarios!$A$2:$A$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2026,60 +1795,60 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" customWidth="1"/>
-    <col min="2" max="4" width="22.1796875" customWidth="1"/>
-    <col min="5" max="5" width="14.1796875" customWidth="1"/>
-    <col min="6" max="6" width="21.7265625" customWidth="1"/>
-    <col min="7" max="7" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.1796875" customWidth="1"/>
+    <col min="1" max="1" width="13.21875" customWidth="1"/>
+    <col min="2" max="4" width="22.21875" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" customWidth="1"/>
+    <col min="6" max="6" width="21.77734375" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.21875" customWidth="1"/>
     <col min="10" max="11" width="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.26953125" customWidth="1"/>
+    <col min="12" max="12" width="15.21875" customWidth="1"/>
     <col min="13" max="13" width="12" customWidth="1"/>
-    <col min="14" max="14" width="12.1796875" customWidth="1"/>
+    <col min="14" max="14" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="30" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:12" ht="15">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -2098,18 +1867,12 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2D56584C-F3BF-4651-89A3-0B8BAA5C1393}">
           <x14:formula1>
             <xm:f>Scenarios!$A$2:$A$2</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A19</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FD22F409-183B-4AF6-9790-EF81D1E40D15}">
-          <x14:formula1>
-            <xm:f>Scenarios!$A$2:$A$34</xm:f>
-          </x14:formula1>
-          <xm:sqref>A2</xm:sqref>
+          <xm:sqref>A2:A19</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C93206E7-0385-46EF-891F-ADB5536E6A5A}">
           <x14:formula1>
@@ -2134,211 +1897,213 @@
   <dimension ref="A1:G80"/>
   <sheetViews>
     <sheetView zoomScale="104" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="49.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="42.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="128.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="128.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="G1" s="14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="F1" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="14" t="s">
+      <c r="F2" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>36</v>
-      </c>
       <c r="G2" s="14" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="14"/>
       <c r="B3" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="D3" s="14" t="s">
+      <c r="E3" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>39</v>
-      </c>
       <c r="G3" s="14" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="14" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="14"/>
+        <v>40</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>243</v>
+      </c>
       <c r="F5" s="14"/>
       <c r="G5" s="14" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
       <c r="D6" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
       <c r="G10" s="14" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
       <c r="G11" s="14" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
@@ -2346,10 +2111,10 @@
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
@@ -2357,10 +2122,10 @@
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -2368,10 +2133,10 @@
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
       <c r="G15" s="14" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -2379,10 +2144,10 @@
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
       <c r="G16" s="14" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -2390,10 +2155,10 @@
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -2401,10 +2166,10 @@
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
       <c r="G18" s="14" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -2412,10 +2177,10 @@
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
       <c r="G19" s="14" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -2423,10 +2188,10 @@
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
       <c r="G20" s="14" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -2434,10 +2199,10 @@
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
       <c r="G21" s="14" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -2445,10 +2210,10 @@
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
       <c r="G22" s="14" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -2456,10 +2221,10 @@
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
       <c r="G23" s="14" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -2467,10 +2232,10 @@
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -2478,10 +2243,10 @@
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
       <c r="G25" s="14" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -2489,262 +2254,262 @@
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
       <c r="G26" s="14" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="G28" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="G30" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="G31" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="G32" s="14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="7:7">
+      <c r="G33" s="14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="34" spans="7:7">
+      <c r="G34" s="14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35" spans="7:7">
+      <c r="G35" s="14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="36" spans="7:7">
+      <c r="G36" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="37" spans="7:7">
+      <c r="G37" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="38" spans="7:7">
+      <c r="G38" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="39" spans="7:7">
+      <c r="G39" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="7:7">
+      <c r="G40" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="41" spans="7:7">
+      <c r="G41" s="14" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="42" spans="7:7">
+      <c r="G42" s="14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="43" spans="7:7">
+      <c r="G43" s="14" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="44" spans="7:7">
+      <c r="G44" s="14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="45" spans="7:7">
+      <c r="G45" s="14" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="46" spans="7:7">
+      <c r="G46" s="14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="47" spans="7:7">
+      <c r="G47" s="14" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="48" spans="7:7">
+      <c r="G48" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="49" spans="7:7">
+      <c r="G49" s="14" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="50" spans="7:7">
+      <c r="G50" s="14" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="51" spans="7:7">
+      <c r="G51" s="14" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="52" spans="7:7">
+      <c r="G52" s="14" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="53" spans="7:7">
+      <c r="G53" s="14" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="54" spans="7:7">
+      <c r="G54" s="14" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="55" spans="7:7">
+      <c r="G55" s="14" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="57" spans="7:7">
+      <c r="G57" s="14" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G31" s="14" t="s">
+    <row r="58" spans="7:7">
+      <c r="G58" s="14" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G32" s="14" t="s">
+    <row r="59" spans="7:7">
+      <c r="G59" s="14" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G33" s="14" t="s">
+    <row r="60" spans="7:7">
+      <c r="G60" s="14" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G34" s="14" t="s">
+    <row r="61" spans="7:7">
+      <c r="G61" s="14" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G35" s="14" t="s">
+    <row r="62" spans="7:7">
+      <c r="G62" s="14" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G36" s="14" t="s">
+    <row r="63" spans="7:7">
+      <c r="G63" s="14" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="37" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G37" s="14" t="s">
+    <row r="64" spans="7:7">
+      <c r="G64" s="14" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="38" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G38" s="14" t="s">
+    <row r="65" spans="7:7">
+      <c r="G65" s="14" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="39" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G39" s="14" t="s">
+    <row r="66" spans="7:7">
+      <c r="G66" s="14" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="40" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G40" s="14" t="s">
+    <row r="67" spans="7:7">
+      <c r="G67" s="14" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="41" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G41" s="14" t="s">
+    <row r="68" spans="7:7">
+      <c r="G68" s="14" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="42" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G42" s="14" t="s">
+    <row r="69" spans="7:7">
+      <c r="G69" s="14" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="43" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G43" s="14" t="s">
+    <row r="70" spans="7:7">
+      <c r="G70" s="14" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="44" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G44" s="14" t="s">
+    <row r="71" spans="7:7">
+      <c r="G71" s="14" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="45" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G45" s="14" t="s">
+    <row r="72" spans="7:7">
+      <c r="G72" s="14" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="46" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G46" s="14" t="s">
+    <row r="73" spans="7:7">
+      <c r="G73" s="14" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="47" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G47" s="14" t="s">
+    <row r="74" spans="7:7">
+      <c r="G74" s="14" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="48" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G48" s="14" t="s">
+    <row r="75" spans="7:7">
+      <c r="G75" s="14" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="49" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G49" s="14" t="s">
+    <row r="76" spans="7:7">
+      <c r="G76" s="14" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="50" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G50" s="14" t="s">
+    <row r="77" spans="7:7">
+      <c r="G77" s="14" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="51" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G51" s="14" t="s">
+    <row r="78" spans="7:7">
+      <c r="G78" s="14" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="52" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G52" s="14" t="s">
+    <row r="79" spans="7:7">
+      <c r="G79" s="14" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="53" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G53" s="14" t="s">
+    <row r="80" spans="7:7">
+      <c r="G80" s="14" t="s">
         <v>219</v>
-      </c>
-    </row>
-    <row r="54" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G54" s="14" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="55" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G55" s="14" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="57" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G57" s="14" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="58" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G58" s="14" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="59" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G59" s="14" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="60" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G60" s="14" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="61" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G61" s="14" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="62" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G62" s="14" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="63" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G63" s="14" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="64" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G64" s="14" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="65" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G65" s="14" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="66" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G66" s="14" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="67" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G67" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="68" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G68" s="14" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="69" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G69" s="14" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="70" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G70" s="14" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="71" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G71" s="14" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="72" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G72" s="14" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="73" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G73" s="14" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="74" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G74" s="14" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="75" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G75" s="14" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="76" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G76" s="14" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="77" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G77" s="14" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="78" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G78" s="14" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="79" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G79" s="14" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="80" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G80" s="14" t="s">
-        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -2760,342 +2525,342 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="79.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.1796875" customWidth="1"/>
-    <col min="3" max="3" width="27.1796875" customWidth="1"/>
-    <col min="4" max="4" width="34.54296875" customWidth="1"/>
-    <col min="5" max="5" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="56.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="79.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.21875" customWidth="1"/>
+    <col min="3" max="3" width="27.21875" customWidth="1"/>
+    <col min="4" max="4" width="34.5546875" customWidth="1"/>
+    <col min="5" max="5" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="56.77734375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="B1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>51</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>52</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>53</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>54</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>55</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>58</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>59</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>60</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>61</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>62</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>65</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
         <v>66</v>
       </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>67</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>68</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>71</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>72</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>73</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>74</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>75</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>78</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>79</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>80</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>81</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>82</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>85</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>86</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>87</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>88</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>89</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>92</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>93</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>94</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>95</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>98</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>99</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>100</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>101</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>104</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>105</v>
       </c>
-      <c r="C10" t="s">
+      <c r="F10" t="s">
         <v>106</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="G10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>109</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>110</v>
       </c>
-      <c r="C11" t="s">
+      <c r="F11" t="s">
         <v>111</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G11" s="1" t="s">
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>114</v>
       </c>
-      <c r="B12" t="s">
+      <c r="F12" t="s">
         <v>115</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G12" s="1" t="s">
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>118</v>
       </c>
-      <c r="B13" t="s">
+      <c r="F13" t="s">
         <v>119</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G13" s="1" t="s">
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
+      <c r="F14" t="s">
         <v>122</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G14" s="1" t="s">
+    </row>
+    <row r="15" spans="1:7">
+      <c r="B15" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
+      <c r="F15" t="s">
         <v>125</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G15" s="1" t="s">
+    </row>
+    <row r="16" spans="1:7">
+      <c r="B16" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
+      <c r="F16" t="s">
         <v>128</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G16" s="1" t="s">
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
+      <c r="F17" t="s">
         <v>131</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="G17" s="1" t="s">
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
+      <c r="F18" t="s">
         <v>134</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="G18" s="1" t="s">
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
+      <c r="F19" t="s">
         <v>137</v>
       </c>
-      <c r="F19" t="s">
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
+      <c r="F20" t="s">
         <v>139</v>
       </c>
-      <c r="F20" t="s">
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B21" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -3112,50 +2877,50 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="13" style="14" customWidth="1"/>
-    <col min="2" max="2" width="12.6328125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="14"/>
-    <col min="4" max="4" width="11.36328125" style="14" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="14" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="14"/>
-    <col min="7" max="7" width="11.81640625" style="14" customWidth="1"/>
-    <col min="8" max="8" width="13.81640625" style="14" customWidth="1"/>
-    <col min="9" max="9" width="19.7265625" style="14" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="14"/>
+    <col min="2" max="2" width="12.6640625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" style="14"/>
+    <col min="4" max="4" width="11.33203125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="14" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" style="14"/>
+    <col min="7" max="7" width="11.77734375" style="14" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" style="14" customWidth="1"/>
+    <col min="9" max="9" width="19.77734375" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="8.77734375" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="32" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:11" ht="30">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="H1" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="I1" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="H1" s="24" t="s">
-        <v>243</v>
-      </c>
-      <c r="I1" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
